--- a/src/main/java/com/centralvista/testdata/TestData.xlsx
+++ b/src/main/java/com/centralvista/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="17400" windowHeight="4965" activeTab="3"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="17400" windowHeight="4965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginHomePage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
   <si>
     <t>TCID</t>
   </si>
@@ -281,9 +281,6 @@
     <t>11488</t>
   </si>
   <si>
-    <t>Varneet101@gmail.com</t>
-  </si>
-  <si>
     <t>Session XVII</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
   </si>
   <si>
     <t>Aadhaar number already exists.</t>
-  </si>
-  <si>
-    <t>8287993282</t>
   </si>
   <si>
     <t>RA Creentials</t>
@@ -814,6 +808,18 @@
   </si>
   <si>
     <t>3456780bn</t>
+  </si>
+  <si>
+    <t>ministrymemberv@gmail.com</t>
+  </si>
+  <si>
+    <t>9955995595</t>
+  </si>
+  <si>
+    <t>541919191919</t>
+  </si>
+  <si>
+    <t>123154847577</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,9 +967,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1724,142 +1727,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.85546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="27" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.85546875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="30.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>82</v>
@@ -1873,16 +1876,16 @@
       <c r="E2" s="11">
         <v>45828</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="20">
-        <v>546578787889</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="F2" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="19">
         <v>9123456780</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -1892,7 +1895,7 @@
         <v>66</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" s="11">
         <v>45989</v>
@@ -1925,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>71</v>
@@ -1940,7 +1943,7 @@
         <v>72</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>71</v>
@@ -1948,46 +1951,46 @@
       <c r="AD2" s="10">
         <v>110020</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>114</v>
+      <c r="AE2" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="11">
         <v>45828</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="21">
-        <v>645678948788</v>
-      </c>
-      <c r="H3" s="21">
-        <v>8287993282</v>
-      </c>
-      <c r="I3" s="21">
+      <c r="F3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="20">
         <v>9123456781</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>88</v>
+      <c r="L3" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="M3" s="11">
         <v>45989</v>
@@ -1995,94 +1998,94 @@
       <c r="N3" s="11">
         <v>45991</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="12">
         <v>112345678</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <v>118765432</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <v>102</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>110015</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>201</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="13">
-        <v>110015</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>201</v>
-      </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AD3" s="12">
+        <v>110021</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>110021</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:31" ht="30.75" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E4" s="11">
         <v>45828</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="20">
+        <v>9541785425</v>
+      </c>
+      <c r="I4" s="20">
+        <v>9123456782</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G4" s="21">
-        <v>123154847577</v>
-      </c>
-      <c r="H4" s="21">
-        <v>9541785425</v>
-      </c>
-      <c r="I4" s="21">
-        <v>9123456782</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="11">
         <v>45990</v>
@@ -2090,94 +2093,94 @@
       <c r="N4" s="11">
         <v>45992</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <v>112345678</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>118765432</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="17">
         <v>103</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>110015</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>201</v>
+      </c>
+      <c r="AA4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="13" t="s">
+      <c r="AB4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="18">
-        <v>110015</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>201</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="17">
         <v>110022</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>115</v>
+      <c r="AE4" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>96</v>
+      <c r="D5" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="11">
         <v>45828</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="21">
-        <v>546578787889</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="F5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="20">
         <v>9572548749</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>9123456783</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>88</v>
+      <c r="L5" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="M5" s="11">
         <v>45983</v>
@@ -2185,116 +2188,109 @@
       <c r="N5" s="11">
         <v>45993</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <v>112345678</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <v>118765432</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="17">
         <v>104</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>110015</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>201</v>
+      </c>
+      <c r="AA5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" s="13" t="s">
+      <c r="AB5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="18">
-        <v>110015</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>201</v>
-      </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AD5" s="17">
+        <v>110023</v>
+      </c>
+      <c r="AE5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AB5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>110023</v>
-      </c>
-      <c r="AE5" s="13" t="s">
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="18" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="18" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="14" spans="1:31">
+      <c r="A14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2304,10 +2300,11 @@
     <hyperlink ref="B16" r:id="rId2"/>
     <hyperlink ref="B18" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2315,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2346,587 +2343,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="M1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="27" t="s">
+      <c r="D2" s="27">
+        <v>123456781219</v>
+      </c>
+      <c r="E2" s="26">
+        <v>9090999999</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="28">
-        <v>123456781219</v>
-      </c>
-      <c r="E2" s="27">
-        <v>9090999999</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="C3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="27">
+        <v>123456789012</v>
+      </c>
+      <c r="E3" s="26">
+        <v>9090909090</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="G3" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="28">
-        <v>123456789012</v>
-      </c>
-      <c r="E3" s="27">
-        <v>9090909090</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>179</v>
+      <c r="I3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="K3" s="11">
         <v>45830</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="O3" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="P3" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="S3" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="W3" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" s="27" t="s">
+      <c r="B4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="27">
+        <v>123456789012</v>
+      </c>
+      <c r="E4" s="26">
+        <v>9090909097</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="W3" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="28">
-        <v>123456789012</v>
-      </c>
-      <c r="E4" s="27">
-        <v>9090909097</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="K4" s="11">
         <v>45831</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="S4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" s="27" t="s">
+      <c r="T4" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="V4" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="W4" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="S4" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="W4" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="27" t="s">
+      <c r="C5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="27">
+        <v>123456999992</v>
+      </c>
+      <c r="E5" s="26">
+        <v>7090909097</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="H5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="28">
-        <v>123456999992</v>
-      </c>
-      <c r="E5" s="27">
-        <v>7090909097</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>180</v>
+      <c r="J5" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="K5" s="11">
         <v>45832</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="Q5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="R5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="S5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="T5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="W5" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="T5" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="V5" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="W5" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="C6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="27">
+        <v>974516999992</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="28">
-        <v>974516999992</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>181</v>
+      <c r="J6" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="K6" s="11">
         <v>45833</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="27" t="s">
+      <c r="L6" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="R6" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="27" t="s">
+      <c r="S6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="27" t="s">
+      <c r="V6" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>186</v>
+      <c r="W6" s="26" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" s="27" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="26" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="27">
+        <v>123456900000</v>
+      </c>
+      <c r="E19" s="26">
+        <v>9111111111</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="28">
-        <v>123456900000</v>
-      </c>
-      <c r="E19" s="27">
-        <v>9111111111</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>180</v>
+      <c r="J19" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="K19" s="11">
         <v>45832</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" s="27" t="s">
+      <c r="L19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="N19" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="O19" s="27" t="s">
+      <c r="Q19" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="R19" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="S19" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="T19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V19" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="S19" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="V19" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" s="27" customFormat="1">
-      <c r="D20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:23" s="27" customFormat="1">
-      <c r="D21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="K21" s="34"/>
+      <c r="W19" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="26" customFormat="1">
+      <c r="D20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:23" s="26" customFormat="1">
+      <c r="D21" s="27"/>
+      <c r="H21" s="29"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="G22" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="J22" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="L22" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="34">
+        <v>45958</v>
+      </c>
+      <c r="C23" s="30">
+        <v>45981</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="35">
-        <v>45958</v>
-      </c>
-      <c r="C23" s="31">
-        <v>45981</v>
-      </c>
-      <c r="D23" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
         <v>205</v>
       </c>
-      <c r="G23" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
         <v>208</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>207</v>
       </c>
-      <c r="J23" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="M23" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="L23" t="s">
-        <v>209</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="B24" s="34"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="22" t="s">
-        <v>112</v>
+      <c r="A26" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -2934,12 +2931,12 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="22" t="s">
-        <v>213</v>
+      <c r="A28" s="21" t="s">
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -2947,11 +2944,11 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3013,104 +3010,104 @@
     <col min="31" max="31" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="16" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:31" s="15" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="16" customFormat="1" ht="60.75" thickBot="1">
+    <row r="2" spans="1:31" s="15" customFormat="1" ht="60.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>82</v>
@@ -3119,31 +3116,31 @@
         <v>83</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11">
         <v>45828</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>222</v>
+      <c r="I2" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>264</v>
+      <c r="L2" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="M2" s="11">
         <v>45890</v>
@@ -3152,13 +3149,13 @@
         <v>45990</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="R2" s="10">
         <v>112345678</v>
@@ -3167,16 +3164,16 @@
         <v>118765432</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>161</v>
+        <v>226</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>70</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>71</v>
@@ -3184,14 +3181,14 @@
       <c r="Y2" s="10">
         <v>110015</v>
       </c>
-      <c r="Z2" s="20" t="s">
-        <v>229</v>
+      <c r="Z2" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>72</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>71</v>
@@ -3199,46 +3196,46 @@
       <c r="AD2" s="10">
         <v>110020</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="16" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="AE2" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="15" customFormat="1" ht="60.75" thickBot="1">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="11">
         <v>45828</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="F3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="20">
         <v>8287993282</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>231</v>
+      <c r="I3" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>232</v>
+      <c r="L3" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="M3" s="11">
         <v>45891</v>
@@ -3247,93 +3244,93 @@
         <v>45991</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="R3" s="12">
+        <v>112345678</v>
+      </c>
+      <c r="S3" s="12">
+        <v>118765432</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="13">
-        <v>112345678</v>
-      </c>
-      <c r="S3" s="13">
-        <v>118765432</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>110015</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>110021</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>110015</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>110021</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" s="16" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:31" s="15" customFormat="1" ht="60.75" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E4" s="11">
         <v>45828</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="I4" s="20">
+        <v>9123456782</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="21">
-        <v>9123456782</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="11">
         <v>45892</v>
@@ -3342,93 +3339,93 @@
         <v>45992</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="17">
+        <v>112345678</v>
+      </c>
+      <c r="S4" s="17">
+        <v>118765432</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="R4" s="18">
-        <v>112345678</v>
-      </c>
-      <c r="S4" s="18">
-        <v>118765432</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>110015</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>110022</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>110015</v>
-      </c>
-      <c r="Z4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:31" s="15" customFormat="1" ht="60.75" thickBot="1">
+      <c r="A5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AA4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>110022</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="16" customFormat="1" ht="60.75" thickBot="1">
-      <c r="A5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>96</v>
+      <c r="D5" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="11">
         <v>45828</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="I5" s="20">
+        <v>9123456783</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="21">
-        <v>9123456783</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="11">
         <v>45893</v>
@@ -3437,93 +3434,93 @@
         <v>45993</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="R5" s="17">
+        <v>112345678</v>
+      </c>
+      <c r="S5" s="17">
+        <v>118765432</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="R5" s="18">
-        <v>112345678</v>
-      </c>
-      <c r="S5" s="18">
-        <v>118765432</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>110015</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>110023</v>
+      </c>
+      <c r="AE5" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>110015</v>
-      </c>
-      <c r="Z5" s="20" t="s">
+    </row>
+    <row r="6" spans="1:31" ht="60.75" thickBot="1">
+      <c r="A6" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="AA5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>110023</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="60.75" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>96</v>
+      <c r="D6" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="11">
         <v>45828</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>224</v>
+      <c r="L6" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="M6" s="11">
         <v>45894</v>
@@ -3532,64 +3529,64 @@
         <v>45994</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="R6" s="17">
+        <v>112345678</v>
+      </c>
+      <c r="S6" s="17">
+        <v>118765432</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="R6" s="18">
-        <v>112345678</v>
-      </c>
-      <c r="S6" s="18">
-        <v>118765432</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>110016</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>110023</v>
+      </c>
+      <c r="AE6" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="V6" s="13" t="s">
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="W6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>110016</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>110023</v>
-      </c>
-      <c r="AE6" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="38" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
